--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il11-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il11-Il6st.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04156866666666666</v>
+        <v>0.193268</v>
       </c>
       <c r="H2">
-        <v>0.124706</v>
+        <v>0.579804</v>
       </c>
       <c r="I2">
-        <v>0.02383845226880681</v>
+        <v>0.1207017725010034</v>
       </c>
       <c r="J2">
-        <v>0.02383845226880681</v>
+        <v>0.1207017725010034</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.96608766666666</v>
+        <v>19.827687</v>
       </c>
       <c r="N2">
-        <v>119.898263</v>
+        <v>59.483061</v>
       </c>
       <c r="O2">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="P2">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="Q2">
-        <v>1.661336976186444</v>
+        <v>3.832057411116</v>
       </c>
       <c r="R2">
-        <v>14.952032785678</v>
+        <v>34.488516700044</v>
       </c>
       <c r="S2">
-        <v>0.006236534162975675</v>
+        <v>0.01856862879470946</v>
       </c>
       <c r="T2">
-        <v>0.006236534162975676</v>
+        <v>0.01856862879470945</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04156866666666666</v>
+        <v>0.193268</v>
       </c>
       <c r="H3">
-        <v>0.124706</v>
+        <v>0.579804</v>
       </c>
       <c r="I3">
-        <v>0.02383845226880681</v>
+        <v>0.1207017725010034</v>
       </c>
       <c r="J3">
-        <v>0.02383845226880681</v>
+        <v>0.1207017725010034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>255.358833</v>
       </c>
       <c r="O3">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="P3">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
       <c r="Q3">
-        <v>3.538308736455333</v>
+        <v>16.450896978748</v>
       </c>
       <c r="R3">
-        <v>31.844778628098</v>
+        <v>148.058072808732</v>
       </c>
       <c r="S3">
-        <v>0.01328254510094196</v>
+        <v>0.07971451535466886</v>
       </c>
       <c r="T3">
-        <v>0.01328254510094196</v>
+        <v>0.07971451535466884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04156866666666666</v>
+        <v>0.193268</v>
       </c>
       <c r="H4">
-        <v>0.124706</v>
+        <v>0.579804</v>
       </c>
       <c r="I4">
-        <v>0.02383845226880681</v>
+        <v>0.1207017725010034</v>
       </c>
       <c r="J4">
-        <v>0.02383845226880681</v>
+        <v>0.1207017725010034</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.68018833333333</v>
+        <v>23.93873833333333</v>
       </c>
       <c r="N4">
-        <v>83.040565</v>
+        <v>71.816215</v>
       </c>
       <c r="O4">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="P4">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="Q4">
-        <v>1.150628522098889</v>
+        <v>4.626592080206667</v>
       </c>
       <c r="R4">
-        <v>10.35565669889</v>
+        <v>41.63932872186</v>
       </c>
       <c r="S4">
-        <v>0.004319373004889172</v>
+        <v>0.0224186283516251</v>
       </c>
       <c r="T4">
-        <v>0.004319373004889173</v>
+        <v>0.02241862835162509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.654123</v>
       </c>
       <c r="I5">
-        <v>0.6985119939686074</v>
+        <v>0.7607038292883184</v>
       </c>
       <c r="J5">
-        <v>0.6985119939686074</v>
+        <v>0.7607038292883183</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.96608766666666</v>
+        <v>19.827687</v>
       </c>
       <c r="N5">
-        <v>119.898263</v>
+        <v>59.483061</v>
       </c>
       <c r="O5">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="P5">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="Q5">
-        <v>48.68033338759433</v>
+        <v>24.150935701167</v>
       </c>
       <c r="R5">
-        <v>438.123000488349</v>
+        <v>217.358421310503</v>
       </c>
       <c r="S5">
-        <v>0.1827423133226562</v>
+        <v>0.117025845901736</v>
       </c>
       <c r="T5">
-        <v>0.1827423133226562</v>
+        <v>0.1170258459017359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.654123</v>
       </c>
       <c r="I6">
-        <v>0.6985119939686074</v>
+        <v>0.7607038292883184</v>
       </c>
       <c r="J6">
-        <v>0.6985119939686074</v>
+        <v>0.7607038292883183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>255.358833</v>
       </c>
       <c r="O6">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="P6">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
       <c r="Q6">
         <v>103.679176102051</v>
@@ -818,10 +818,10 @@
         <v>933.1125849184591</v>
       </c>
       <c r="S6">
-        <v>0.3892038358370034</v>
+        <v>0.5023881242477608</v>
       </c>
       <c r="T6">
-        <v>0.3892038358370034</v>
+        <v>0.5023881242477606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.654123</v>
       </c>
       <c r="I7">
-        <v>0.6985119939686074</v>
+        <v>0.7607038292883184</v>
       </c>
       <c r="J7">
-        <v>0.6985119939686074</v>
+        <v>0.7607038292883183</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.68018833333333</v>
+        <v>23.93873833333333</v>
       </c>
       <c r="N7">
-        <v>83.040565</v>
+        <v>71.816215</v>
       </c>
       <c r="O7">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="P7">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="Q7">
-        <v>33.71560427772167</v>
+        <v>29.15836477827167</v>
       </c>
       <c r="R7">
-        <v>303.440438499495</v>
+        <v>262.425283004445</v>
       </c>
       <c r="S7">
-        <v>0.1265658448089478</v>
+        <v>0.1412898591388217</v>
       </c>
       <c r="T7">
-        <v>0.1265658448089478</v>
+        <v>0.1412898591388217</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4841556666666667</v>
+        <v>0.1898936666666667</v>
       </c>
       <c r="H8">
-        <v>1.452467</v>
+        <v>0.569681</v>
       </c>
       <c r="I8">
-        <v>0.2776495537625858</v>
+        <v>0.1185943982106783</v>
       </c>
       <c r="J8">
-        <v>0.2776495537625858</v>
+        <v>0.1185943982106783</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.96608766666666</v>
+        <v>19.827687</v>
       </c>
       <c r="N8">
-        <v>119.898263</v>
+        <v>59.483061</v>
       </c>
       <c r="O8">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="P8">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="Q8">
-        <v>19.34980781831344</v>
+        <v>3.765152185949</v>
       </c>
       <c r="R8">
-        <v>174.148270364821</v>
+        <v>33.886369673541</v>
       </c>
       <c r="S8">
-        <v>0.07263772445668043</v>
+        <v>0.01824443263654421</v>
       </c>
       <c r="T8">
-        <v>0.07263772445668044</v>
+        <v>0.01824443263654421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4841556666666667</v>
+        <v>0.1898936666666667</v>
       </c>
       <c r="H9">
-        <v>1.452467</v>
+        <v>0.569681</v>
       </c>
       <c r="I9">
-        <v>0.2776495537625858</v>
+        <v>0.1185943982106783</v>
       </c>
       <c r="J9">
-        <v>0.2776495537625858</v>
+        <v>0.1185943982106783</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>255.358833</v>
       </c>
       <c r="O9">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="P9">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
       <c r="Q9">
-        <v>41.21114201011233</v>
+        <v>16.16367503803033</v>
       </c>
       <c r="R9">
-        <v>370.900278091011</v>
+        <v>145.473075342273</v>
       </c>
       <c r="S9">
-        <v>0.1547035301840318</v>
+        <v>0.07832275186401458</v>
       </c>
       <c r="T9">
-        <v>0.1547035301840318</v>
+        <v>0.07832275186401456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4841556666666667</v>
+        <v>0.1898936666666667</v>
       </c>
       <c r="H10">
-        <v>1.452467</v>
+        <v>0.569681</v>
       </c>
       <c r="I10">
-        <v>0.2776495537625858</v>
+        <v>0.1185943982106783</v>
       </c>
       <c r="J10">
-        <v>0.2776495537625858</v>
+        <v>0.1185943982106783</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.68018833333333</v>
+        <v>23.93873833333333</v>
       </c>
       <c r="N10">
-        <v>83.040565</v>
+        <v>71.816215</v>
       </c>
       <c r="O10">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="P10">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="Q10">
-        <v>13.40152003598389</v>
+        <v>4.545814797490555</v>
       </c>
       <c r="R10">
-        <v>120.613680323855</v>
+        <v>40.912333177415</v>
       </c>
       <c r="S10">
-        <v>0.05030829912187353</v>
+        <v>0.02202721371011952</v>
       </c>
       <c r="T10">
-        <v>0.05030829912187354</v>
+        <v>0.02202721371011952</v>
       </c>
     </row>
   </sheetData>
